--- a/assets/catalogo_lida.xlsx
+++ b/assets/catalogo_lida.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="25160" windowHeight="15180"/>
   </bookViews>
   <sheets>
     <sheet name="LDCATAN" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LDCATAN!$I$1:$I$2174</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -14764,8 +14769,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15270,48 +15275,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -15602,23 +15607,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2154" workbookViewId="0">
+      <selection activeCell="H2177" sqref="H2177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">
@@ -50822,7 +50827,7 @@
         <v>531</v>
       </c>
       <c r="F1495" s="6" t="s">
-        <v>3</v>
+        <v>3971</v>
       </c>
       <c r="G1495" s="6" t="s">
         <v>4264</v>
@@ -68040,7 +68045,7 @@
         <v>4899</v>
       </c>
     </row>
-    <row r="2161" spans="1:9">
+    <row r="2161" spans="1:8">
       <c r="A2161" s="8" t="s">
         <v>3938</v>
       </c>
@@ -68066,7 +68071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2162" spans="1:9">
+    <row r="2162" spans="1:8">
       <c r="A2162" s="8" t="s">
         <v>3940</v>
       </c>
@@ -68092,7 +68097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2163" spans="1:9">
+    <row r="2163" spans="1:8">
       <c r="A2163" s="8" t="s">
         <v>3942</v>
       </c>
@@ -68115,7 +68120,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="2164" spans="1:9">
+    <row r="2164" spans="1:8">
       <c r="A2164" s="8" t="s">
         <v>3943</v>
       </c>
@@ -68141,7 +68146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2165" spans="1:9">
+    <row r="2165" spans="1:8">
       <c r="A2165" s="8" t="s">
         <v>3945</v>
       </c>
@@ -68167,7 +68172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2166" spans="1:9">
+    <row r="2166" spans="1:8">
       <c r="A2166" s="8" t="s">
         <v>3947</v>
       </c>
@@ -68190,7 +68195,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="2167" spans="1:9">
+    <row r="2167" spans="1:8">
       <c r="A2167" s="8" t="s">
         <v>3948</v>
       </c>
@@ -68216,7 +68221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2168" spans="1:9">
+    <row r="2168" spans="1:8">
       <c r="A2168" s="8" t="s">
         <v>3950</v>
       </c>
@@ -68242,7 +68247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2169" spans="1:9">
+    <row r="2169" spans="1:8">
       <c r="A2169" s="8" t="s">
         <v>3952</v>
       </c>
@@ -68265,7 +68270,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="2170" spans="1:9">
+    <row r="2170" spans="1:8">
       <c r="A2170" s="8" t="s">
         <v>3953</v>
       </c>
@@ -68291,7 +68296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2171" spans="1:9">
+    <row r="2171" spans="1:8">
       <c r="A2171" s="8" t="s">
         <v>3955</v>
       </c>
@@ -68317,7 +68322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2172" spans="1:9">
+    <row r="2172" spans="1:8">
       <c r="A2172" s="8" t="s">
         <v>3957</v>
       </c>
@@ -68340,7 +68345,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="2173" spans="1:9">
+    <row r="2173" spans="1:8">
       <c r="A2173" s="8" t="s">
         <v>3958</v>
       </c>
@@ -68366,7 +68371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2174" spans="1:9">
+    <row r="2174" spans="1:8">
       <c r="A2174" s="8" t="s">
         <v>3960</v>
       </c>
@@ -68392,24 +68397,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2175" spans="1:9">
-      <c r="H2175" s="1">
-        <f>SUM(H2:H2174)</f>
-        <v>53729322.910000034</v>
-      </c>
-      <c r="I2175">
-        <f>SUM(I2:I2174)</f>
-        <v>18350215.970000003</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:9">
-      <c r="H2176" s="1">
-        <f>H2175-I2175</f>
-        <v>35379106.940000027</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>